--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
@@ -674,55 +674,55 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.03144796260457183</v>
       </c>
       <c r="E2">
-        <v>0.03646020042922023</v>
+        <v>0.1501553721541416</v>
       </c>
       <c r="F2">
-        <v>0.1874935731250425</v>
+        <v>0.03146383649294613</v>
       </c>
       <c r="G2">
-        <v>0.2663658411335913</v>
+        <v>0.1728572334673885</v>
       </c>
       <c r="H2">
-        <v>0.2838937758016715</v>
+        <v>0.1634570514352981</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.06479964125550096</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01942295398647182</v>
       </c>
       <c r="L2">
-        <v>0.1128397561067585</v>
+        <v>0.003899381977447679</v>
       </c>
       <c r="M2">
-        <v>0.02490907487844918</v>
+        <v>0.2345901250736683</v>
       </c>
       <c r="N2">
-        <v>0.01017883168603257</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.004638523886862506</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01744391275633482</v>
       </c>
       <c r="Q2">
-        <v>0.0003408374543019545</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005539469710326634</v>
+        <v>0.01047292105786431</v>
       </c>
       <c r="S2">
-        <v>0.006668552896578233</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002591626713728028</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01670628798664078</v>
       </c>
       <c r="X2">
-        <v>0.01759711984284027</v>
+        <v>0.03703046393019917</v>
       </c>
       <c r="Y2">
-        <v>0.01074089004420585</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.007909160853108197</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01997021269501606</v>
       </c>
       <c r="AC2">
-        <v>0.03438045017725342</v>
+        <v>0.01373495838653925</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -787,79 +787,79 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2908232273162981</v>
+        <v>0.0731179171541866</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.1068356944379548</v>
       </c>
       <c r="G3">
-        <v>0.3586975870839298</v>
+        <v>0.2652820880757277</v>
       </c>
       <c r="H3">
-        <v>0.03855900497585855</v>
+        <v>0.1881008578862759</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03189319298754439</v>
       </c>
       <c r="J3">
-        <v>0.01858736019769114</v>
+        <v>0.01819886053385007</v>
       </c>
       <c r="K3">
-        <v>0.1208489869191962</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03914059201849913</v>
+        <v>0.04590238981330421</v>
       </c>
       <c r="M3">
-        <v>0.02201482564134247</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01054747066721586</v>
+        <v>0.1457521469623715</v>
       </c>
       <c r="O3">
-        <v>0.0125846300953745</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.02706487633816352</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.008333450240973218</v>
       </c>
       <c r="R3">
-        <v>0.01957770292497812</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.01262084781601135</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.01828307338220065</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01455917504109214</v>
       </c>
       <c r="X3">
-        <v>0.03610085126994152</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.00503024543021138</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0195648476971195</v>
       </c>
       <c r="AA3">
-        <v>0.00129372728321139</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.005792561281552891</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02543147232491038</v>
+        <v>0.01807309477180319</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.001387241431209825</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -897,46 +897,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3115819456258839</v>
+        <v>0.1242589882808096</v>
       </c>
       <c r="F4">
-        <v>0.05839872578124777</v>
+        <v>0.03129178372259624</v>
       </c>
       <c r="G4">
-        <v>0.3360468485982868</v>
+        <v>0.2364507814315564</v>
       </c>
       <c r="H4">
-        <v>0.009140668295738685</v>
+        <v>0.1144109323166648</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0466166212381405</v>
       </c>
       <c r="J4">
-        <v>0.002067701341536079</v>
+        <v>0.03083971220679408</v>
       </c>
       <c r="K4">
-        <v>0.1552259915244661</v>
+        <v>0.003516177855458765</v>
       </c>
       <c r="L4">
-        <v>0.03470525542210808</v>
+        <v>0.03622623331437425</v>
       </c>
       <c r="M4">
-        <v>0.03701417222022348</v>
+        <v>0.0421574970297369</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2262628879533209</v>
       </c>
       <c r="O4">
-        <v>0.0011142937367423</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.04526136206281634</v>
       </c>
       <c r="R4">
-        <v>0.009279093643155368</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0008438005133995952</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02465399748063748</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.00684659576935125</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.03681093213770222</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.004733000838817334</v>
       </c>
       <c r="AB4">
-        <v>0.01223352148028301</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002759091809743823</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.005778693039947349</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.00124226565730637</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.01223042767115448</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1007,79 +1007,79 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184375685329555</v>
+        <v>0.2776142967912409</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0414441378094899</v>
       </c>
       <c r="G5">
-        <v>0.3879745534065988</v>
+        <v>0.306188309867175</v>
       </c>
       <c r="H5">
-        <v>0.111850781774743</v>
+        <v>0.01479931268523208</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005297488823191431</v>
       </c>
       <c r="J5">
-        <v>0.02170350158576591</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04567886471806309</v>
+        <v>0.07415470693825639</v>
       </c>
       <c r="L5">
-        <v>0.1203816505237333</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05030297971788403</v>
+        <v>0.05212188844313199</v>
       </c>
       <c r="N5">
-        <v>0.002593960872364038</v>
+        <v>0.08491892664777087</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01842086291326208</v>
       </c>
       <c r="P5">
-        <v>0.0001684614241921933</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01974064805404056</v>
       </c>
       <c r="R5">
-        <v>0.005089454327890633</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.003220811946743139</v>
       </c>
       <c r="T5">
-        <v>0.003235602090665387</v>
+        <v>0.03896889064540764</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01010057598857142</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04431710709177726</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.03098812152840344</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003901752111189831</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01842564502557766</v>
+        <v>0.0002243972451438381</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02179662367293939</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1114,70 +1114,70 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0146589640158236</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2314252557623172</v>
+        <v>0.309005188565485</v>
       </c>
       <c r="F6">
-        <v>0.2524613736564633</v>
+        <v>0.03645064219333949</v>
       </c>
       <c r="G6">
-        <v>0.2021378390062248</v>
+        <v>0.3131662516863252</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03316832773605088</v>
       </c>
       <c r="I6">
-        <v>0.004924783326422265</v>
+        <v>0.008827822330082785</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1593934997664758</v>
+        <v>0.05690014935368994</v>
       </c>
       <c r="L6">
-        <v>0.0283228084378554</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.04792730531266454</v>
+        <v>0.06818618252115459</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.05612056053444826</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02474018624627216</v>
       </c>
       <c r="P6">
-        <v>0.01070484535079365</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.007658544622489684</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0006887295716804254</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01090125265694401</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01570437675532925</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01462057359510586</v>
       </c>
       <c r="W6">
-        <v>0.01448531176682427</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01493110183893391</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.02590263869901098</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01862691175920119</v>
+        <v>0.007494710676201809</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001809621254909587</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.008654241001480092</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1347,79 +1347,79 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.03144796260457183</v>
       </c>
       <c r="E2">
-        <v>0.03646020042922023</v>
+        <v>0.1816033347587134</v>
       </c>
       <c r="F2">
-        <v>0.2239537735542627</v>
+        <v>0.2130671712516595</v>
       </c>
       <c r="G2">
-        <v>0.490319614687854</v>
+        <v>0.385924404719048</v>
       </c>
       <c r="H2">
-        <v>0.7742133904895255</v>
+        <v>0.5493814561543462</v>
       </c>
       <c r="I2">
-        <v>0.7742133904895255</v>
+        <v>0.6141810974098472</v>
       </c>
       <c r="J2">
-        <v>0.7742133904895255</v>
+        <v>0.6141810974098472</v>
       </c>
       <c r="K2">
-        <v>0.7742133904895255</v>
+        <v>0.633604051396319</v>
       </c>
       <c r="L2">
-        <v>0.887053146596284</v>
+        <v>0.6375034333737667</v>
       </c>
       <c r="M2">
-        <v>0.9119622214747332</v>
+        <v>0.872093558447435</v>
       </c>
       <c r="N2">
-        <v>0.9221410531607658</v>
+        <v>0.872093558447435</v>
       </c>
       <c r="O2">
-        <v>0.9221410531607658</v>
+        <v>0.8767320823342974</v>
       </c>
       <c r="P2">
-        <v>0.9221410531607658</v>
+        <v>0.8941759950906323</v>
       </c>
       <c r="Q2">
-        <v>0.9224818906150677</v>
+        <v>0.8941759950906323</v>
       </c>
       <c r="R2">
-        <v>0.9280213603253943</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="S2">
-        <v>0.9346899132219725</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="T2">
-        <v>0.9372815399357005</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="U2">
-        <v>0.9372815399357005</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="V2">
-        <v>0.9372815399357005</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="W2">
-        <v>0.9372815399357005</v>
+        <v>0.9213552041351374</v>
       </c>
       <c r="X2">
-        <v>0.9548786597785408</v>
+        <v>0.9583856680653365</v>
       </c>
       <c r="Y2">
-        <v>0.9656195498227467</v>
+        <v>0.9583856680653365</v>
       </c>
       <c r="Z2">
-        <v>0.9656195498227467</v>
+        <v>0.9662948289184448</v>
       </c>
       <c r="AA2">
-        <v>0.9656195498227467</v>
+        <v>0.9662948289184448</v>
       </c>
       <c r="AB2">
-        <v>0.9656195498227467</v>
+        <v>0.9862650416134608</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1460,88 +1460,88 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2908232273162981</v>
+        <v>0.0731179171541866</v>
       </c>
       <c r="F3">
-        <v>0.2908232273162981</v>
+        <v>0.1799536115921415</v>
       </c>
       <c r="G3">
-        <v>0.6495208144002278</v>
+        <v>0.4452356996678691</v>
       </c>
       <c r="H3">
-        <v>0.6880798193760863</v>
+        <v>0.633336557554145</v>
       </c>
       <c r="I3">
-        <v>0.6880798193760863</v>
+        <v>0.6652297505416893</v>
       </c>
       <c r="J3">
-        <v>0.7066671795737774</v>
+        <v>0.6834286110755394</v>
       </c>
       <c r="K3">
-        <v>0.8275161664929737</v>
+        <v>0.6834286110755394</v>
       </c>
       <c r="L3">
-        <v>0.8666567585114728</v>
+        <v>0.7293310008888436</v>
       </c>
       <c r="M3">
-        <v>0.8886715841528153</v>
+        <v>0.7293310008888436</v>
       </c>
       <c r="N3">
-        <v>0.8992190548200312</v>
+        <v>0.8750831478512151</v>
       </c>
       <c r="O3">
-        <v>0.9118036849154056</v>
+        <v>0.8750831478512151</v>
       </c>
       <c r="P3">
-        <v>0.9118036849154056</v>
+        <v>0.9021480241893787</v>
       </c>
       <c r="Q3">
-        <v>0.9118036849154056</v>
+        <v>0.9104814744303519</v>
       </c>
       <c r="R3">
-        <v>0.9313813878403837</v>
+        <v>0.9104814744303519</v>
       </c>
       <c r="S3">
-        <v>0.9313813878403837</v>
+        <v>0.9231023222463632</v>
       </c>
       <c r="T3">
-        <v>0.9313813878403837</v>
+        <v>0.9231023222463632</v>
       </c>
       <c r="U3">
-        <v>0.9313813878403837</v>
+        <v>0.9413853956285639</v>
       </c>
       <c r="V3">
-        <v>0.9313813878403837</v>
+        <v>0.9413853956285639</v>
       </c>
       <c r="W3">
-        <v>0.9313813878403837</v>
+        <v>0.9559445706696561</v>
       </c>
       <c r="X3">
-        <v>0.9674822391103253</v>
+        <v>0.9559445706696561</v>
       </c>
       <c r="Y3">
-        <v>0.9674822391103253</v>
+        <v>0.9609748160998675</v>
       </c>
       <c r="Z3">
-        <v>0.9674822391103253</v>
+        <v>0.980539663796987</v>
       </c>
       <c r="AA3">
-        <v>0.9687759663935367</v>
+        <v>0.980539663796987</v>
       </c>
       <c r="AB3">
-        <v>0.9745685276750896</v>
+        <v>0.980539663796987</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9986127585687902</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9986127585687902</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9986127585687902</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9986127585687902</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1570,88 +1570,88 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3115819456258839</v>
+        <v>0.1242589882808096</v>
       </c>
       <c r="F4">
-        <v>0.3699806714071317</v>
+        <v>0.1555507720034059</v>
       </c>
       <c r="G4">
-        <v>0.7060275200054185</v>
+        <v>0.3920015534349623</v>
       </c>
       <c r="H4">
-        <v>0.7151681883011571</v>
+        <v>0.5064124857516271</v>
       </c>
       <c r="I4">
-        <v>0.7151681883011571</v>
+        <v>0.5530291069897676</v>
       </c>
       <c r="J4">
-        <v>0.7172358896426932</v>
+        <v>0.5838688191965616</v>
       </c>
       <c r="K4">
-        <v>0.8724618811671594</v>
+        <v>0.5873849970520204</v>
       </c>
       <c r="L4">
-        <v>0.9071671365892675</v>
+        <v>0.6236112303663947</v>
       </c>
       <c r="M4">
-        <v>0.944181308809491</v>
+        <v>0.6657687273961316</v>
       </c>
       <c r="N4">
-        <v>0.944181308809491</v>
+        <v>0.8920316153494525</v>
       </c>
       <c r="O4">
-        <v>0.9452956025462333</v>
+        <v>0.8920316153494525</v>
       </c>
       <c r="P4">
-        <v>0.9452956025462333</v>
+        <v>0.8920316153494525</v>
       </c>
       <c r="Q4">
-        <v>0.9452956025462333</v>
+        <v>0.9372929774122689</v>
       </c>
       <c r="R4">
-        <v>0.9545746961893887</v>
+        <v>0.9372929774122689</v>
       </c>
       <c r="S4">
-        <v>0.9545746961893887</v>
+        <v>0.9372929774122689</v>
       </c>
       <c r="T4">
-        <v>0.9545746961893887</v>
+        <v>0.9372929774122689</v>
       </c>
       <c r="U4">
-        <v>0.9545746961893887</v>
+        <v>0.9381367779256685</v>
       </c>
       <c r="V4">
-        <v>0.9545746961893887</v>
+        <v>0.9381367779256685</v>
       </c>
       <c r="W4">
-        <v>0.9545746961893887</v>
+        <v>0.9381367779256685</v>
       </c>
       <c r="X4">
-        <v>0.9792286936700262</v>
+        <v>0.9381367779256685</v>
       </c>
       <c r="Y4">
-        <v>0.9792286936700262</v>
+        <v>0.9449833736950197</v>
       </c>
       <c r="Z4">
-        <v>0.9792286936700262</v>
+        <v>0.981794305832722</v>
       </c>
       <c r="AA4">
-        <v>0.9792286936700262</v>
+        <v>0.9865273066715393</v>
       </c>
       <c r="AB4">
-        <v>0.9914622151503092</v>
+        <v>0.9865273066715393</v>
       </c>
       <c r="AC4">
-        <v>0.9942213069600531</v>
+        <v>0.9865273066715393</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9865273066715393</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9865273066715393</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9877695723288457</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1680,85 +1680,85 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184375685329555</v>
+        <v>0.2776142967912409</v>
       </c>
       <c r="F5">
-        <v>0.184375685329555</v>
+        <v>0.3190584346007308</v>
       </c>
       <c r="G5">
-        <v>0.5723502387361536</v>
+        <v>0.6252467444679057</v>
       </c>
       <c r="H5">
-        <v>0.6842010205108966</v>
+        <v>0.6400460571531378</v>
       </c>
       <c r="I5">
-        <v>0.6842010205108966</v>
+        <v>0.6453435459763293</v>
       </c>
       <c r="J5">
-        <v>0.7059045220966625</v>
+        <v>0.6453435459763293</v>
       </c>
       <c r="K5">
-        <v>0.7515833868147256</v>
+        <v>0.7194982529145857</v>
       </c>
       <c r="L5">
-        <v>0.8719650373384589</v>
+        <v>0.7194982529145857</v>
       </c>
       <c r="M5">
-        <v>0.9222680170563429</v>
+        <v>0.7716201413577177</v>
       </c>
       <c r="N5">
-        <v>0.9248619779287069</v>
+        <v>0.8565390680054886</v>
       </c>
       <c r="O5">
-        <v>0.9248619779287069</v>
+        <v>0.8749599309187507</v>
       </c>
       <c r="P5">
-        <v>0.9250304393528992</v>
+        <v>0.8749599309187507</v>
       </c>
       <c r="Q5">
-        <v>0.9250304393528992</v>
+        <v>0.8947005789727912</v>
       </c>
       <c r="R5">
-        <v>0.9301198936807898</v>
+        <v>0.8947005789727912</v>
       </c>
       <c r="S5">
-        <v>0.9301198936807898</v>
+        <v>0.8979213909195344</v>
       </c>
       <c r="T5">
-        <v>0.9333554957714553</v>
+        <v>0.936890281564942</v>
       </c>
       <c r="U5">
-        <v>0.9333554957714553</v>
+        <v>0.936890281564942</v>
       </c>
       <c r="V5">
-        <v>0.9333554957714553</v>
+        <v>0.9469908575535134</v>
       </c>
       <c r="W5">
-        <v>0.9333554957714553</v>
+        <v>0.9469908575535134</v>
       </c>
       <c r="X5">
-        <v>0.9776726028632325</v>
+        <v>0.9469908575535134</v>
       </c>
       <c r="Y5">
-        <v>0.9776726028632325</v>
+        <v>0.9779789790819169</v>
       </c>
       <c r="Z5">
-        <v>0.9776726028632325</v>
+        <v>0.9779789790819169</v>
       </c>
       <c r="AA5">
-        <v>0.9815743549744224</v>
+        <v>0.9779789790819169</v>
       </c>
       <c r="AB5">
-        <v>0.9815743549744224</v>
+        <v>0.9779789790819169</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9782033763270608</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9782033763270608</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9782033763270608</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0146589640158236</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2460842197781408</v>
+        <v>0.309005188565485</v>
       </c>
       <c r="F6">
-        <v>0.4985455934346041</v>
+        <v>0.3454558307588245</v>
       </c>
       <c r="G6">
-        <v>0.700683432440829</v>
+        <v>0.6586220824451497</v>
       </c>
       <c r="H6">
-        <v>0.700683432440829</v>
+        <v>0.6917904101812006</v>
       </c>
       <c r="I6">
-        <v>0.7056082157672512</v>
+        <v>0.7006182325112834</v>
       </c>
       <c r="J6">
-        <v>0.7056082157672512</v>
+        <v>0.7006182325112834</v>
       </c>
       <c r="K6">
-        <v>0.8650017155337271</v>
+        <v>0.7575183818649733</v>
       </c>
       <c r="L6">
-        <v>0.8933245239715825</v>
+        <v>0.7575183818649733</v>
       </c>
       <c r="M6">
-        <v>0.941251829284247</v>
+        <v>0.8257045643861279</v>
       </c>
       <c r="N6">
-        <v>0.941251829284247</v>
+        <v>0.8818251249205762</v>
       </c>
       <c r="O6">
-        <v>0.941251829284247</v>
+        <v>0.9065653111668484</v>
       </c>
       <c r="P6">
-        <v>0.9519566746350406</v>
+        <v>0.9065653111668484</v>
       </c>
       <c r="Q6">
-        <v>0.9519566746350406</v>
+        <v>0.9142238557893381</v>
       </c>
       <c r="R6">
-        <v>0.9519566746350406</v>
+        <v>0.9149125853610185</v>
       </c>
       <c r="S6">
-        <v>0.9519566746350406</v>
+        <v>0.9258138380179625</v>
       </c>
       <c r="T6">
-        <v>0.9519566746350406</v>
+        <v>0.9415182147732917</v>
       </c>
       <c r="U6">
-        <v>0.9519566746350406</v>
+        <v>0.9415182147732917</v>
       </c>
       <c r="V6">
-        <v>0.9519566746350406</v>
+        <v>0.9561387883683975</v>
       </c>
       <c r="W6">
-        <v>0.966441986401865</v>
+        <v>0.9561387883683975</v>
       </c>
       <c r="X6">
-        <v>0.9813730882407988</v>
+        <v>0.9561387883683975</v>
       </c>
       <c r="Y6">
-        <v>0.9813730882407988</v>
+        <v>0.9820414270674085</v>
       </c>
       <c r="Z6">
-        <v>0.9813730882407988</v>
+        <v>0.9820414270674085</v>
       </c>
       <c r="AA6">
-        <v>0.9813730882407988</v>
+        <v>0.9820414270674085</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9895361377436103</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9913457589985198</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9913457589985198</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9913457589985198</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7742133904895255</v>
+        <v>0.5493814561543462</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6495208144002278</v>
+        <v>0.633336557554145</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7060275200054185</v>
+        <v>0.5064124857516271</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5723502387361536</v>
+        <v>0.6252467444679057</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.700683432440829</v>
+        <v>0.6586220824451497</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2207,19 +2207,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7742133904895255</v>
+        <v>0.872093558447435</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7293310008888436</v>
+      </c>
+      <c r="G3">
         <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7066671795737774</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7060275200054185</v>
+        <v>0.8920316153494525</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7059045220966625</v>
+        <v>0.7194982529145857</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7006182325112834</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.700683432440829</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -2466,19 +2466,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.887053146596284</v>
+        <v>0.872093558447435</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8275161664929737</v>
+        <v>0.8750831478512151</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8724618811671594</v>
+        <v>0.8920316153494525</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8565390680054886</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8719650373384589</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8257045643861279</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8650017155337271</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -2725,19 +2725,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9119622214747332</v>
+        <v>0.9046489161484966</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9118036849154056</v>
+        <v>0.9021480241893787</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9071671365892675</v>
+        <v>0.9372929774122689</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9222680170563429</v>
+        <v>0.936890281564942</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9065653111668484</v>
+      </c>
+      <c r="G6">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.941251829284247</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
       </c>
       <c r="H6">
         <v>22</v>
